--- a/Data/questionnaires_database_names_map.xlsx
+++ b/Data/questionnaires_database_names_map.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>SAS</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>database-name</t>
+  </si>
+  <si>
+    <t>ffq</t>
+  </si>
+  <si>
+    <t>ffq_sum</t>
   </si>
 </sst>
 </file>
@@ -497,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -707,6 +713,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="28" spans="1:2">
       <c r="B28" s="1"/>
     </row>
